--- a/ValueSet-chronic-cardiologic-diseases-icd.xlsx
+++ b/ValueSet-chronic-cardiologic-diseases-icd.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -56,7 +56,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
